--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_2007.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_2007.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>846.90999999999997</t>
+          <t>846.91</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>400952.29999999999</t>
+          <t>400952.3</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>18270.779999999999</t>
+          <t>18270.78</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1117,7 +1117,7 @@
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>98410.440000000002</t>
+          <t>98410.44</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>45.979999999999997</t>
+          <t>45.98</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1279,7 +1279,7 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>195264.29999999999</t>
+          <t>195264.3</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
@@ -1333,7 +1333,7 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>5258.3999999999996</t>
+          <t>5258.4</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>75535.289999999994</t>
+          <t>75535.29</t>
         </is>
       </c>
       <c r="E37" s="0" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>70098.389999999999</t>
+          <t>70098.39</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>282.97000000000003</t>
+          <t>282.97</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>121.29000000000001</t>
+          <t>121.29</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
@@ -1522,7 +1522,7 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>38.659999999999997</t>
+          <t>38.66</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>10181.639999999999</t>
+          <t>10181.64</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>9.7300000000000004</t>
+          <t>9.73</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>1110.1500000000001</t>
+          <t>1110.15</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
@@ -1954,7 +1954,7 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>410.13999999999999</t>
+          <t>410.14</t>
         </is>
       </c>
       <c r="E59" s="0" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>56.979999999999997</t>
+          <t>56.98</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>104.20999999999999</t>
+          <t>104.21</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
@@ -2116,7 +2116,7 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>58.600000000000001</t>
+          <t>58.6</t>
         </is>
       </c>
       <c r="E65" s="0" t="inlineStr">
@@ -2170,7 +2170,7 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>1469.0599999999999</t>
+          <t>1469.06</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>108523.28999999999</t>
+          <t>108523.29</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>7309.8400000000001</t>
+          <t>7309.84</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -2251,7 +2251,7 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>6534.3299999999999</t>
+          <t>6534.33</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
@@ -2278,7 +2278,7 @@
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>378.74000000000001</t>
+          <t>378.74</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>80170.720000000001</t>
+          <t>80170.72</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>4094.8699999999999</t>
+          <t>4094.87</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>30503.110000000001</t>
+          <t>30503.11</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>5242.5600000000004</t>
+          <t>5242.56</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>28.190000000000001</t>
+          <t>28.19</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>334342.67999999999</t>
+          <t>334342.68</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>44854.660000000003</t>
+          <t>44854.66</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
@@ -2710,7 +2710,7 @@
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>1512.8299999999999</t>
+          <t>1512.83</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>6803.7399999999998</t>
+          <t>6803.74</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>37969.029999999999</t>
+          <t>37969.03</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -2980,7 +2980,7 @@
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>6047.1800000000003</t>
+          <t>6047.18</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
@@ -3061,7 +3061,7 @@
       </c>
       <c r="D100" s="0" t="inlineStr">
         <is>
-          <t>105526.24000000001</t>
+          <t>105526.24</t>
         </is>
       </c>
       <c r="E100" s="0" t="inlineStr">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>596.73000000000002</t>
+          <t>596.73</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>22142.950000000001</t>
+          <t>22142.95</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3412,7 +3412,7 @@
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>1401.8099999999999</t>
+          <t>1401.81</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>952557.94999999995</t>
+          <t>952557.95</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>180093.82000000001</t>
+          <t>180093.82</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="D125" s="0" t="inlineStr">
         <is>
-          <t>298.38999999999999</t>
+          <t>298.39</t>
         </is>
       </c>
       <c r="E125" s="0" t="inlineStr">
@@ -3844,7 +3844,7 @@
       </c>
       <c r="D129" s="0" t="inlineStr">
         <is>
-          <t>2470.3600000000001</t>
+          <t>2470.36</t>
         </is>
       </c>
       <c r="E129" s="0" t="inlineStr">
@@ -4303,7 +4303,7 @@
       </c>
       <c r="D146" s="0" t="inlineStr">
         <is>
-          <t>46965.949999999997</t>
+          <t>46965.95</t>
         </is>
       </c>
       <c r="E146" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>6673463.6500000004</t>
+          <t>6673463.65</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>2292344.7000000002</t>
+          <t>2292344.7</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>53065.900000000001</t>
+          <t>53065.9</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="D159" s="0" t="inlineStr">
         <is>
-          <t>97367.800000000003</t>
+          <t>97367.8</t>
         </is>
       </c>
       <c r="E159" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>238108.35000000001</t>
+          <t>238108.35</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>1604772.3999999999</t>
+          <t>1604772.4</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>3697872.5600000001</t>
+          <t>3697872.56</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>2358261.0899999999</t>
+          <t>2358261.09</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4897,7 +4897,7 @@
       </c>
       <c r="D168" s="0" t="inlineStr">
         <is>
-          <t>390913.78000000003</t>
+          <t>390913.78</t>
         </is>
       </c>
       <c r="E168" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>2990679.6299999999</t>
+          <t>2990679.63</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5005,7 +5005,7 @@
       </c>
       <c r="D172" s="0" t="inlineStr">
         <is>
-          <t>633376.05000000005</t>
+          <t>633376.05</t>
         </is>
       </c>
       <c r="E172" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>322554.60999999999</t>
+          <t>322554.61</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>48696.830000000002</t>
+          <t>48696.83</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>222661.89000000001</t>
+          <t>222661.89</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="D177" s="0" t="inlineStr">
         <is>
-          <t>51062.459999999999</t>
+          <t>51062.46</t>
         </is>
       </c>
       <c r="E177" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>429982.42999999999</t>
+          <t>429982.43</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>43590.120000000003</t>
+          <t>43590.12</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5248,7 +5248,7 @@
       </c>
       <c r="D181" s="0" t="inlineStr">
         <is>
-          <t>12319.209999999999</t>
+          <t>12319.21</t>
         </is>
       </c>
       <c r="E181" s="0" t="inlineStr">
@@ -5275,7 +5275,7 @@
       </c>
       <c r="D182" s="0" t="inlineStr">
         <is>
-          <t>815140.91000000003</t>
+          <t>815140.91</t>
         </is>
       </c>
       <c r="E182" s="0" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="D183" s="0" t="inlineStr">
         <is>
-          <t>88536.339999999997</t>
+          <t>88536.34</t>
         </is>
       </c>
       <c r="E183" s="0" t="inlineStr">
@@ -5329,7 +5329,7 @@
       </c>
       <c r="D184" s="0" t="inlineStr">
         <is>
-          <t>62772.489999999998</t>
+          <t>62772.49</t>
         </is>
       </c>
       <c r="E184" s="0" t="inlineStr">
@@ -5383,7 +5383,7 @@
       </c>
       <c r="D186" s="0" t="inlineStr">
         <is>
-          <t>2320.0599999999999</t>
+          <t>2320.06</t>
         </is>
       </c>
       <c r="E186" s="0" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="D187" s="0" t="inlineStr">
         <is>
-          <t>38334.580000000002</t>
+          <t>38334.58</t>
         </is>
       </c>
       <c r="E187" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>246271.57999999999</t>
+          <t>246271.58</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>699105.55000000005</t>
+          <t>699105.55</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="D192" s="0" t="inlineStr">
         <is>
-          <t>526.91999999999996</t>
+          <t>526.92</t>
         </is>
       </c>
       <c r="E192" s="0" t="inlineStr">
@@ -5599,7 +5599,7 @@
       </c>
       <c r="D194" s="0" t="inlineStr">
         <is>
-          <t>7841.5600000000004</t>
+          <t>7841.56</t>
         </is>
       </c>
       <c r="E194" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>41.549999999999997</t>
+          <t>41.55</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5680,7 +5680,7 @@
       </c>
       <c r="D197" s="0" t="inlineStr">
         <is>
-          <t>59.280000000000001</t>
+          <t>59.28</t>
         </is>
       </c>
       <c r="E197" s="0" t="inlineStr">
@@ -5734,7 +5734,7 @@
       </c>
       <c r="D199" s="0" t="inlineStr">
         <is>
-          <t>114531.24000000001</t>
+          <t>114531.24</t>
         </is>
       </c>
       <c r="E199" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>2259.1500000000001</t>
+          <t>2259.15</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5842,7 +5842,7 @@
       </c>
       <c r="D203" s="0" t="inlineStr">
         <is>
-          <t>30.039999999999999</t>
+          <t>30.04</t>
         </is>
       </c>
       <c r="E203" s="0" t="inlineStr">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="D204" s="0" t="inlineStr">
         <is>
-          <t>11540.549999999999</t>
+          <t>11540.55</t>
         </is>
       </c>
       <c r="E204" s="0" t="inlineStr">
@@ -5923,7 +5923,7 @@
       </c>
       <c r="D206" s="0" t="inlineStr">
         <is>
-          <t>3367.8099999999999</t>
+          <t>3367.81</t>
         </is>
       </c>
       <c r="E206" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>9876.3700000000008</t>
+          <t>9876.37</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6004,7 +6004,7 @@
       </c>
       <c r="D209" s="0" t="inlineStr">
         <is>
-          <t>2.7799999999999998</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E209" s="0" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D210" s="0" t="inlineStr">
         <is>
-          <t>7.3099999999999996</t>
+          <t>7.31</t>
         </is>
       </c>
       <c r="E210" s="0" t="inlineStr">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="D212" s="0" t="inlineStr">
         <is>
-          <t>5796.0500000000002</t>
+          <t>5796.05</t>
         </is>
       </c>
       <c r="E212" s="0" t="inlineStr">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="D214" s="0" t="inlineStr">
         <is>
-          <t>4985.9700000000003</t>
+          <t>4985.97</t>
         </is>
       </c>
       <c r="E214" s="0" t="inlineStr">
@@ -6193,7 +6193,7 @@
       </c>
       <c r="D216" s="0" t="inlineStr">
         <is>
-          <t>63.640000000000001</t>
+          <t>63.64</t>
         </is>
       </c>
       <c r="E216" s="0" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="D218" s="0" t="inlineStr">
         <is>
-          <t>300139.77000000002</t>
+          <t>300139.77</t>
         </is>
       </c>
       <c r="E218" s="0" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="D219" s="0" t="inlineStr">
         <is>
-          <t>86916.759999999995</t>
+          <t>86916.76</t>
         </is>
       </c>
       <c r="E219" s="0" t="inlineStr">
@@ -6382,7 +6382,7 @@
       </c>
       <c r="D223" s="0" t="inlineStr">
         <is>
-          <t>12.460000000000001</t>
+          <t>12.46</t>
         </is>
       </c>
       <c r="E223" s="0" t="inlineStr">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D225" s="0" t="inlineStr">
         <is>
-          <t>457.61000000000001</t>
+          <t>457.61</t>
         </is>
       </c>
       <c r="E225" s="0" t="inlineStr">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="D228" s="0" t="inlineStr">
         <is>
-          <t>26.379999999999999</t>
+          <t>26.38</t>
         </is>
       </c>
       <c r="E228" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>27153.799999999999</t>
+          <t>27153.8</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6571,7 +6571,7 @@
       </c>
       <c r="D230" s="0" t="inlineStr">
         <is>
-          <t>13565.200000000001</t>
+          <t>13565.2</t>
         </is>
       </c>
       <c r="E230" s="0" t="inlineStr">
@@ -6598,7 +6598,7 @@
       </c>
       <c r="D231" s="0" t="inlineStr">
         <is>
-          <t>36.450000000000003</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="E231" s="0" t="inlineStr">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="D232" s="0" t="inlineStr">
         <is>
-          <t>69.719999999999999</t>
+          <t>69.72</t>
         </is>
       </c>
       <c r="E232" s="0" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="D236" s="0" t="inlineStr">
         <is>
-          <t>23631.889999999999</t>
+          <t>23631.89</t>
         </is>
       </c>
       <c r="E236" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>35320.529999999999</t>
+          <t>35320.53</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6787,7 +6787,7 @@
       </c>
       <c r="D238" s="0" t="inlineStr">
         <is>
-          <t>465453.09999999998</t>
+          <t>465453.1</t>
         </is>
       </c>
       <c r="E238" s="0" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </c>
       <c r="D242" s="0" t="inlineStr">
         <is>
-          <t>1316.6600000000001</t>
+          <t>1316.66</t>
         </is>
       </c>
       <c r="E242" s="0" t="inlineStr">
@@ -6976,7 +6976,7 @@
       </c>
       <c r="D245" s="0" t="inlineStr">
         <is>
-          <t>2273.7199999999998</t>
+          <t>2273.72</t>
         </is>
       </c>
       <c r="E245" s="0" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="D248" s="0" t="inlineStr">
         <is>
-          <t>2519.0599999999999</t>
+          <t>2519.06</t>
         </is>
       </c>
       <c r="E248" s="0" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="D253" s="0" t="inlineStr">
         <is>
-          <t>43.369999999999997</t>
+          <t>43.37</t>
         </is>
       </c>
       <c r="E253" s="0" t="inlineStr">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="D257" s="0" t="inlineStr">
         <is>
-          <t>35256.779999999999</t>
+          <t>35256.78</t>
         </is>
       </c>
       <c r="E257" s="0" t="inlineStr">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="D258" s="0" t="inlineStr">
         <is>
-          <t>2728.8800000000001</t>
+          <t>2728.88</t>
         </is>
       </c>
       <c r="E258" s="0" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="D261" s="0" t="inlineStr">
         <is>
-          <t>1765.1300000000001</t>
+          <t>1765.13</t>
         </is>
       </c>
       <c r="E261" s="0" t="inlineStr">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="D266" s="0" t="inlineStr">
         <is>
-          <t>4.4400000000000004</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="E266" s="0" t="inlineStr">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="D267" s="0" t="inlineStr">
         <is>
-          <t>10791.360000000001</t>
+          <t>10791.36</t>
         </is>
       </c>
       <c r="E267" s="0" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="D269" s="0" t="inlineStr">
         <is>
-          <t>133.55000000000001</t>
+          <t>133.55</t>
         </is>
       </c>
       <c r="E269" s="0" t="inlineStr">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="D270" s="0" t="inlineStr">
         <is>
-          <t>306.58999999999997</t>
+          <t>306.59</t>
         </is>
       </c>
       <c r="E270" s="0" t="inlineStr">
@@ -7894,7 +7894,7 @@
       </c>
       <c r="D279" s="0" t="inlineStr">
         <is>
-          <t>21990.040000000001</t>
+          <t>21990.04</t>
         </is>
       </c>
       <c r="E279" s="0" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </c>
       <c r="D283" s="0" t="inlineStr">
         <is>
-          <t>51.619999999999997</t>
+          <t>51.62</t>
         </is>
       </c>
       <c r="E283" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>9040.2600000000002</t>
+          <t>9040.26</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>853141.20999999996</t>
+          <t>853141.21</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>521305.21999999997</t>
+          <t>521305.22</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="D292" s="0" t="inlineStr">
         <is>
-          <t>33814.610000000001</t>
+          <t>33814.61</t>
         </is>
       </c>
       <c r="E292" s="0" t="inlineStr">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="D294" s="0" t="inlineStr">
         <is>
-          <t>48.409999999999997</t>
+          <t>48.41</t>
         </is>
       </c>
       <c r="E294" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>749761.15000000002</t>
+          <t>749761.15</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8407,7 +8407,7 @@
       </c>
       <c r="D298" s="0" t="inlineStr">
         <is>
-          <t>44603.550000000003</t>
+          <t>44603.55</t>
         </is>
       </c>
       <c r="E298" s="0" t="inlineStr">
@@ -8650,7 +8650,7 @@
       </c>
       <c r="D307" s="0" t="inlineStr">
         <is>
-          <t>1708.8800000000001</t>
+          <t>1708.88</t>
         </is>
       </c>
       <c r="E307" s="0" t="inlineStr">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="D312" s="0" t="inlineStr">
         <is>
-          <t>49412.519999999997</t>
+          <t>49412.52</t>
         </is>
       </c>
       <c r="E312" s="0" t="inlineStr">
@@ -8974,7 +8974,7 @@
       </c>
       <c r="D319" s="0" t="inlineStr">
         <is>
-          <t>77.879999999999995</t>
+          <t>77.88</t>
         </is>
       </c>
       <c r="E319" s="0" t="inlineStr">
@@ -9001,7 +9001,7 @@
       </c>
       <c r="D320" s="0" t="inlineStr">
         <is>
-          <t>184.66999999999999</t>
+          <t>184.67</t>
         </is>
       </c>
       <c r="E320" s="0" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="D326" s="0" t="inlineStr">
         <is>
-          <t>314867.27000000002</t>
+          <t>314867.27</t>
         </is>
       </c>
       <c r="E326" s="0" t="inlineStr">
@@ -9190,7 +9190,7 @@
       </c>
       <c r="D327" s="0" t="inlineStr">
         <is>
-          <t>70317.660000000003</t>
+          <t>70317.66</t>
         </is>
       </c>
       <c r="E327" s="0" t="inlineStr">
@@ -9271,7 +9271,7 @@
       </c>
       <c r="D330" s="0" t="inlineStr">
         <is>
-          <t>12400083.810000001</t>
+          <t>12400083.81</t>
         </is>
       </c>
       <c r="E330" s="0" t="inlineStr">
@@ -9379,7 +9379,7 @@
       </c>
       <c r="D334" s="0" t="inlineStr">
         <is>
-          <t>216999.67999999999</t>
+          <t>216999.68</t>
         </is>
       </c>
       <c r="E334" s="0" t="inlineStr">
@@ -9487,7 +9487,7 @@
       </c>
       <c r="D338" s="0" t="inlineStr">
         <is>
-          <t>6712.6300000000001</t>
+          <t>6712.63</t>
         </is>
       </c>
       <c r="E338" s="0" t="inlineStr">
@@ -9595,7 +9595,7 @@
       </c>
       <c r="D342" s="0" t="inlineStr">
         <is>
-          <t>235.43000000000001</t>
+          <t>235.43</t>
         </is>
       </c>
       <c r="E342" s="0" t="inlineStr">
@@ -9784,7 +9784,7 @@
       </c>
       <c r="D349" s="0" t="inlineStr">
         <is>
-          <t>190.15000000000001</t>
+          <t>190.15</t>
         </is>
       </c>
       <c r="E349" s="0" t="inlineStr">
@@ -10135,7 +10135,7 @@
       </c>
       <c r="D362" s="0" t="inlineStr">
         <is>
-          <t>200.91999999999999</t>
+          <t>200.92</t>
         </is>
       </c>
       <c r="E362" s="0" t="inlineStr">
@@ -10243,7 +10243,7 @@
       </c>
       <c r="D366" s="0" t="inlineStr">
         <is>
-          <t>22918.439999999999</t>
+          <t>22918.44</t>
         </is>
       </c>
       <c r="E366" s="0" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="D367" s="0" t="inlineStr">
         <is>
-          <t>597.23000000000002</t>
+          <t>597.23</t>
         </is>
       </c>
       <c r="E367" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>19567.130000000001</t>
+          <t>19567.13</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10378,7 +10378,7 @@
       </c>
       <c r="D371" s="0" t="inlineStr">
         <is>
-          <t>111.79000000000001</t>
+          <t>111.79</t>
         </is>
       </c>
       <c r="E371" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>136496.04000000001</t>
+          <t>136496.04</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -11269,7 +11269,7 @@
       </c>
       <c r="D404" s="0" t="inlineStr">
         <is>
-          <t>148.13999999999999</t>
+          <t>148.14</t>
         </is>
       </c>
       <c r="E404" s="0" t="inlineStr">
@@ -11350,7 +11350,7 @@
       </c>
       <c r="D407" s="0" t="inlineStr">
         <is>
-          <t>130.30000000000001</t>
+          <t>130.3</t>
         </is>
       </c>
       <c r="E407" s="0" t="inlineStr">
@@ -11566,7 +11566,7 @@
       </c>
       <c r="D415" s="0" t="inlineStr">
         <is>
-          <t>38746.839999999997</t>
+          <t>38746.84</t>
         </is>
       </c>
       <c r="E415" s="0" t="inlineStr">
@@ -12187,7 +12187,7 @@
       </c>
       <c r="D438" s="0" t="inlineStr">
         <is>
-          <t>16130.799999999999</t>
+          <t>16130.8</t>
         </is>
       </c>
       <c r="E438" s="0" t="inlineStr">
@@ -12295,7 +12295,7 @@
       </c>
       <c r="D442" s="0" t="inlineStr">
         <is>
-          <t>74.129999999999995</t>
+          <t>74.13</t>
         </is>
       </c>
       <c r="E442" s="0" t="inlineStr">
@@ -12349,7 +12349,7 @@
       </c>
       <c r="D444" s="0" t="inlineStr">
         <is>
-          <t>690.73000000000002</t>
+          <t>690.73</t>
         </is>
       </c>
       <c r="E444" s="0" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="D445" s="0" t="inlineStr">
         <is>
-          <t>9756.0900000000001</t>
+          <t>9756.09</t>
         </is>
       </c>
       <c r="E445" s="0" t="inlineStr">
@@ -12619,7 +12619,7 @@
       </c>
       <c r="D454" s="0" t="inlineStr">
         <is>
-          <t>13.029999999999999</t>
+          <t>13.03</t>
         </is>
       </c>
       <c r="E454" s="0" t="inlineStr">
@@ -12808,7 +12808,7 @@
       </c>
       <c r="D461" s="0" t="inlineStr">
         <is>
-          <t>5622.0900000000001</t>
+          <t>5622.09</t>
         </is>
       </c>
       <c r="E461" s="0" t="inlineStr">
@@ -12862,7 +12862,7 @@
       </c>
       <c r="D463" s="0" t="inlineStr">
         <is>
-          <t>1357.1600000000001</t>
+          <t>1357.16</t>
         </is>
       </c>
       <c r="E463" s="0" t="inlineStr">
@@ -13024,7 +13024,7 @@
       </c>
       <c r="D469" s="0" t="inlineStr">
         <is>
-          <t>22557.450000000001</t>
+          <t>22557.45</t>
         </is>
       </c>
       <c r="E469" s="0" t="inlineStr">
@@ -13942,7 +13942,7 @@
       </c>
       <c r="D503" s="0" t="inlineStr">
         <is>
-          <t>89582.770000000004</t>
+          <t>89582.77</t>
         </is>
       </c>
       <c r="E503" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>202217.39000000001</t>
+          <t>202217.39</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -14185,7 +14185,7 @@
       </c>
       <c r="D512" s="0" t="inlineStr">
         <is>
-          <t>328240.04999999999</t>
+          <t>328240.05</t>
         </is>
       </c>
       <c r="E512" s="0" t="inlineStr">
@@ -14266,7 +14266,7 @@
       </c>
       <c r="D515" s="0" t="inlineStr">
         <is>
-          <t>91.379999999999995</t>
+          <t>91.38</t>
         </is>
       </c>
       <c r="E515" s="0" t="inlineStr">
@@ -14698,7 +14698,7 @@
       </c>
       <c r="D531" s="0" t="inlineStr">
         <is>
-          <t>20344.830000000002</t>
+          <t>20344.83</t>
         </is>
       </c>
       <c r="E531" s="0" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="D541" s="0" t="inlineStr">
         <is>
-          <t>3319.1300000000001</t>
+          <t>3319.13</t>
         </is>
       </c>
       <c r="E541" s="0" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="D547" s="0" t="inlineStr">
         <is>
-          <t>89919.089999999997</t>
+          <t>89919.09</t>
         </is>
       </c>
       <c r="E547" s="0" t="inlineStr">
@@ -15292,7 +15292,7 @@
       </c>
       <c r="D553" s="0" t="inlineStr">
         <is>
-          <t>29382.939999999999</t>
+          <t>29382.94</t>
         </is>
       </c>
       <c r="E553" s="0" t="inlineStr">
@@ -15886,7 +15886,7 @@
       </c>
       <c r="D575" s="0" t="inlineStr">
         <is>
-          <t>567909.96999999997</t>
+          <t>567909.97</t>
         </is>
       </c>
       <c r="E575" s="0" t="inlineStr">
@@ -16345,7 +16345,7 @@
       </c>
       <c r="D592" s="0" t="inlineStr">
         <is>
-          <t>16055.059999999999</t>
+          <t>16055.06</t>
         </is>
       </c>
       <c r="E592" s="0" t="inlineStr">
@@ -16372,7 +16372,7 @@
       </c>
       <c r="D593" s="0" t="inlineStr">
         <is>
-          <t>5551.9200000000001</t>
+          <t>5551.92</t>
         </is>
       </c>
       <c r="E593" s="0" t="inlineStr">
@@ -16399,7 +16399,7 @@
       </c>
       <c r="D594" s="0" t="inlineStr">
         <is>
-          <t>4683.2799999999997</t>
+          <t>4683.28</t>
         </is>
       </c>
       <c r="E594" s="0" t="inlineStr">
@@ -16426,7 +16426,7 @@
       </c>
       <c r="D595" s="0" t="inlineStr">
         <is>
-          <t>42585.239999999998</t>
+          <t>42585.24</t>
         </is>
       </c>
       <c r="E595" s="0" t="inlineStr">
@@ -16966,7 +16966,7 @@
       </c>
       <c r="D615" s="0" t="inlineStr">
         <is>
-          <t>43.460000000000001</t>
+          <t>43.46</t>
         </is>
       </c>
       <c r="E615" s="0" t="inlineStr">
@@ -17317,7 +17317,7 @@
       </c>
       <c r="D628" s="0" t="inlineStr">
         <is>
-          <t>7927.0100000000002</t>
+          <t>7927.01</t>
         </is>
       </c>
       <c r="E628" s="0" t="inlineStr">
@@ -17344,7 +17344,7 @@
       </c>
       <c r="D629" s="0" t="inlineStr">
         <is>
-          <t>5790.9300000000003</t>
+          <t>5790.93</t>
         </is>
       </c>
       <c r="E629" s="0" t="inlineStr">
@@ -18181,7 +18181,7 @@
       </c>
       <c r="D660" s="0" t="inlineStr">
         <is>
-          <t>3465.1700000000001</t>
+          <t>3465.17</t>
         </is>
       </c>
       <c r="E660" s="0" t="inlineStr">
@@ -18613,7 +18613,7 @@
       </c>
       <c r="D676" s="0" t="inlineStr">
         <is>
-          <t>6211.8400000000001</t>
+          <t>6211.84</t>
         </is>
       </c>
       <c r="E676" s="0" t="inlineStr">
@@ -18640,7 +18640,7 @@
       </c>
       <c r="D677" s="0" t="inlineStr">
         <is>
-          <t>3641.3499999999999</t>
+          <t>3641.35</t>
         </is>
       </c>
       <c r="E677" s="0" t="inlineStr">
@@ -18856,7 +18856,7 @@
       </c>
       <c r="D685" s="0" t="inlineStr">
         <is>
-          <t>58074.110000000001</t>
+          <t>58074.11</t>
         </is>
       </c>
       <c r="E685" s="0" t="inlineStr">
